--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Chagas Disease_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Chagas Disease_spec_overall.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Difficulty swallowing liquids is present.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dysphagia, especially for liquids, can be associated with esophageal involvement in Chagas Disease.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Raynaud's phenomenon can be associated with Chagas disease due to its effects on the autonomic nervous system and vascular changes.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pain relieved with regurgitation is present.</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regurgitation relief suggests a mechanical issue rather than a motility disorder typical of Chagas disease.</t>
+          <t>Raynaud's phenomenon is more commonly associated with connective tissue diseases rather than Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Difficulty swallowing solids is present.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dysphagia for solids can also occur in Chagas Disease due to esophageal motility disorders.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Telangiectasias reported is present.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Telangiectasias are vascular lesions that can occur in Chagas disease, indicating possible chronic effects on the vascular system.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Antacids no longer providing relief is present.</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>If antacids are ineffective, it may indicate a non-acidic cause of symptoms, which is less typical in Chagas disease.</t>
+          <t>Telangiectasias are more indicative of conditions like scleroderma, not typically Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Weight loss reported is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia, particularly for liquids, can be a symptom of esophageal involvement in Chagas disease.</t>
+          <t>Unintentional weight loss can be a consequence of gastrointestinal involvement in Chagas Disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of hoarseness suggests no involvement of the vagus nerve or laryngeal issues, which can occur in Chagas disease.</t>
+          <t>This finding is more suggestive of rheumatologic conditions rather than Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Similar to liquids, difficulty swallowing solids can indicate esophageal motility issues associated with Chagas disease.</t>
+          <t>This symptom can be indicative of esophageal motility issues, which are seen in Chagas Disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Current heartburn is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of cough may indicate that respiratory complications, which can occur in advanced Chagas disease, are not present.</t>
+          <t>Heartburn is a common symptom in many gastrointestinal disorders and not specific to Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Weight loss can occur in chronic Chagas disease due to esophageal dysfunction and malnutrition.</t>
+          <t>Non-progressive dysphagia for liquids is consistent with esophageal involvement in Chagas Disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Shortness of breath is absent.</t>
+          <t>Current reflux is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of shortness of breath suggests that cardiac involvement, which is common in Chagas disease, is not present.</t>
+          <t>Reflux is a common symptom in gastroesophageal reflux disease (GERD) and not specific to Chagas Disease.</t>
         </is>
       </c>
     </row>
@@ -612,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chagas Disease is more prevalent in females in certain endemic regions, which may suggest a higher likelihood of exposure.</t>
+          <t>Chagas Disease can affect both genders, but the presence of being female does not strongly favor or disfavor the diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>Absence of type 2 diabetes.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radiation exposure is a known risk factor for certain heart conditions, and its absence may suggest a lower likelihood of related complications.</t>
+          <t>Type 2 diabetes is not directly related to Chagas Disease, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chagas Disease is often diagnosed in middle-aged individuals, as the chronic phase can take years to develop.</t>
+          <t>Chagas Disease can manifest in middle age, especially if the infection was acquired earlier in life.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Previously diagnosed Coronary Artery Disease is absent</t>
+          <t>Absence of obesity.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of coronary artery disease reduces the likelihood of cardiac symptoms that could be confused with Chagas Disease.</t>
+          <t>Obesity is not a specific risk factor for Chagas Disease, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is often used to manage hypertension, which can be a complication of Chagas Disease due to its effects on the heart.</t>
+          <t>Amlodipine is used to treat hypertension, which can be a complication of Chagas Disease, although it is not specific to it.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prevopis;u doagmpsed Peripheral Artery Disease is absent</t>
+          <t>Absence of prior stroke.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of peripheral artery disease suggests a lower risk of vascular complications that could be associated with Chagas Disease.</t>
+          <t>Stroke is not a common complication of Chagas Disease, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>Absence of prior myocardial infarction.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not directly indicative, the absence of alcohol use disorder may suggest a lower risk of other heart conditions that could mimic Chagas Disease symptoms.</t>
+          <t>While myocardial infarction is not directly related to Chagas Disease, its absence does not rule out Chagas-related cardiomyopathy.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previously diagnosed Hyperlipidemia is absent</t>
+          <t>Absence of environmental allergies.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is a risk factor for cardiovascular disease, and its absence may indicate a lower risk for conditions that mimic Chagas Disease.</t>
+          <t>Environmental allergies are not related to Chagas Disease, so their absence does not affect the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>Absence of diagnosed hypertension.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to alcohol use, the absence of nicotine dependence may indicate a lower risk of cardiovascular issues that could complicate the diagnosis.</t>
+          <t>Hypertension is not a direct indicator of Chagas Disease, so its absence does not strongly affect the likelihood of Chagas Disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Prior myocardial infarction is absent</t>
+          <t>Absence of asthma.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of a prior myocardial infarction suggests a lower likelihood of significant heart disease, which is often associated with Chagas Disease.</t>
+          <t>Asthma is not related to Chagas Disease, so its absence does not affect the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -768,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can contribute to immune system compromise, which may exacerbate the effects of Chagas Disease.</t>
+          <t>Social stress can exacerbate symptoms in chronic diseases, including Chagas Disease, though it is not a direct risk factor.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -778,7 +779,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chagas Disease is endemic to certain regions, and lack of recent travel to these areas significantly reduces the likelihood of exposure.</t>
+          <t>Chagas Disease is endemic to certain regions, and recent travel to these areas is a significant risk factor. Absence of travel reduces the likelihood of exposure.</t>
         </is>
       </c>
     </row>
@@ -790,17 +791,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use can be associated with various health issues, and while not directly linked to Chagas, it may indicate a lifestyle that could increase exposure to risk factors.</t>
+          <t>While not directly linked to Chagas Disease, prior tobacco use can contribute to cardiovascular issues, which are common in chronic Chagas Disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of cancer in the family may suggest a lower risk for chronic diseases, including those associated with Chagas Disease.</t>
+          <t>While not directly linked to Chagas Disease, alcohol use can exacerbate cardiac symptoms, which are common in Chagas Disease.</t>
         </is>
       </c>
     </row>
@@ -812,61 +813,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cardiovascular issues can be a complication of Chagas Disease, and a family history of heart disease may suggest a predisposition to related conditions.</t>
+          <t>Cardiac issues are a common manifestation of chronic Chagas Disease, and a family history of heart problems may suggest a predisposition to cardiac complications.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of recent medical procedures reduces the likelihood of exposure to potential vectors or transmission routes for Chagas Disease.</t>
+          <t>Tobacco use can exacerbate cardiovascular symptoms, which are common in Chagas Disease. Its absence may reduce the likelihood of such complications.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Family history of cancer is absent.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of a family history of cancer does not directly relate to Chagas Disease but may help focus on other potential hereditary conditions.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Absence of autoimmune diseases like Rheumatoid Arthritis may suggest a different immunological profile, potentially aligning with Chagas Disease pathology.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of gestational complications may indicate a lower risk for conditions that could be exacerbated by Chagas Disease.</t>
+          <t>The absence of autoimmune conditions in the family history does not directly relate to Chagas Disease but may help rule out other conditions.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Gestational complications with prior pregnancy is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of alcohol use may indicate a healthier lifestyle, which could be relevant in the context of managing chronic diseases like Chagas.</t>
+          <t>The absence of gestational complications does not directly relate to Chagas Disease but may help rule out other conditions.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Current tobacco use is a risk factor for many diseases, and its absence may suggest a lower overall risk profile for chronic conditions.</t>
+          <t>Recent medical procedures can sometimes lead to complications that mimic Chagas Disease symptoms. Their absence reduces this possibility.</t>
         </is>
       </c>
     </row>
@@ -914,34 +915,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Weight loss on vitals is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with Chagas Disease due to vascular involvement.</t>
+          <t>Weight loss can be associated with chronic Chagas Disease due to gastrointestinal involvement.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Weakness on exam is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice suggests that there is no involvement of the vagus nerve, which can be affected in Chagas Disease.</t>
+          <t>Weakness is a common symptom in chronic Chagas Disease due to cardiac or neurological involvement, so its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>Telangiectasias on exam is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can occur in chronic Chagas Disease due to cardiac or gastrointestinal complications.</t>
+          <t>Telangiectasias can be seen in Chagas Disease due to chronic skin changes.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -951,19 +952,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of cough indicates that respiratory involvement is unlikely, which is often seen in Chagas Disease.</t>
+          <t>Cough can be a symptom of cardiac involvement in Chagas Disease, so its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>Absence of high blood pressure when checked.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon may suggest that other autoimmune conditions are less likely, allowing for a focus on Chagas Disease.</t>
+          <t>Chagas Disease can lead to cardiac issues without necessarily causing high blood pressure.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -973,51 +974,202 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of epigastric pain suggests that gastrointestinal complications, which can occur in Chagas Disease, are not present.</t>
+          <t>Gastrointestinal involvement in Chagas Disease can cause epigastric pain, so its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Absence of obesity by vital signs.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chronic Chagas Disease can lead to weight loss and cachexia, making obesity less likely.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Hoarse voice observed is absent.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The absence of hoarseness may indicate that other causes of throat issues are not present, which can help narrow down to Chagas-related symptoms.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Weakness on exam is absent.</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of weakness may indicate that systemic involvement is not present, which is often seen in advanced Chagas Disease.</t>
+          <t>While not specific, a hoarse voice can be associated with cardiac or esophageal involvement in Chagas Disease, so its absence is slightly against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Absence of joint swelling observed.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of cough can help differentiate from respiratory conditions, allowing for a focus on Chagas Disease.</t>
+          <t>Joint swelling is not typically associated with Chagas Disease, so its absence does not rule out the disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Obesity by vital signs is absent.</t>
+          <t>Finger ulcers observed is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of obesity may suggest a lack of chronic disease processes that could complicate Chagas Disease.</t>
+          <t>Chronic skin changes in Chagas Disease can include ulcers, so their absence is against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Chagas Disease</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Chagas Disease</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Chagas Disease</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Chagas Disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly associated with Chagas Disease, but its presence does not rule out the disease.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>While not specific to Chagas Disease, the absence of a strong positive ANA suggests that autoimmune processes, which can mimic Chagas, are less likely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not rule out Chagas Disease, as ANA is not typically associated with it.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Aspiration can occur in Chagas Disease due to esophageal involvement, so its absence slightly reduces the likelihood of the disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aspiration is not a common finding in Chagas Disease, so its absence does not strongly affect the likelihood of the disease.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The absence of interstitial lung disease, which can occur in some chronic infections, slightly reduces the likelihood of Chagas Disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Interstitial lung disease is not commonly associated with Chagas Disease, so its absence does not strongly affect the likelihood of the disease.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A widened mediastinum can indicate cardiac involvement, which is a complication of Chagas Disease, so its absence slightly reduces the likelihood.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A widened mediastinum is not a typical finding in Chagas Disease, so its absence does not strongly affect the likelihood of the disease.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not associated with Chagas Disease, so its presence does not support the diagnosis.</t>
         </is>
       </c>
     </row>
